--- a/results/fa-optimal.xlsx
+++ b/results/fa-optimal.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hichul\Desktop\2020-2021\Fall of 2020\Independent Study\water-accessibility\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A24F52-096C-46ED-B10D-9164E403A7C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904ADDD5-EA81-4AA9-B389-AAB68DFF6D62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2436" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Optimal-Factor" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="20">
   <si>
     <t>fm</t>
   </si>
@@ -60,20 +69,38 @@
     <t>5 FA</t>
   </si>
   <si>
-    <t>Interpreation</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
+    <t>2 FA</t>
+  </si>
+  <si>
+    <t>Highest</t>
+  </si>
+  <si>
+    <t>6 FA</t>
+  </si>
+  <si>
+    <t>NNFI</t>
+  </si>
+  <si>
+    <t>Lowest .06 or less</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rms </t>
+  </si>
+  <si>
+    <t>with a value of .08 or less being indicative of an acceptable model</t>
+  </si>
+  <si>
+    <t>.95 or above (Highest)</t>
+  </si>
+  <si>
+    <t>error</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,8 +114,14 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,28 +134,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -185,42 +203,41 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -503,234 +520,519 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="6">
+        <v>-182.81</v>
+      </c>
+      <c r="C3" s="10">
+        <v>-179.45259999999999</v>
+      </c>
+      <c r="D3" s="15">
+        <v>-176.32560000000001</v>
+      </c>
+      <c r="E3" s="10">
+        <v>-193.23580000000001</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0.14497579999999999</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.14640310000000001</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0.1385094</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0.43439899999999998</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0.42223559999999999</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.41090579999999999</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0.47217409999999999</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0.11723359999999999</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0.10065830000000001</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.1093722</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.104209</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B10" s="6">
         <v>-163.81280000000001</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C10" s="6">
         <v>-151.6591</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D10" s="16">
         <v>-147.47110000000001</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E10" s="7">
         <v>-176.9049</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B11" s="6">
         <v>0.13922789999999999</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C11" s="6">
         <v>0.14586399999999999</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D11" s="6">
         <v>0.14808189999999999</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E11" s="17">
         <v>0.13170570000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="10">
+        <v>0.45901999999999998</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.40673359999999997</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.38871640000000002</v>
+      </c>
+      <c r="E12" s="15">
+        <v>0.51534380000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="10">
+        <v>9.9236939999999996E-2</v>
+      </c>
+      <c r="C13" s="15">
+        <v>8.1355559999999993E-2</v>
+      </c>
+      <c r="D13" s="10">
+        <v>8.9264430000000006E-2</v>
+      </c>
+      <c r="E13" s="10">
+        <v>8.2689700000000005E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="6">
+        <v>-149.87119999999999</v>
+      </c>
+      <c r="C17" s="10">
+        <v>-139.51410000000001</v>
+      </c>
+      <c r="D17" s="16">
+        <v>-109.791</v>
+      </c>
+      <c r="E17" s="7">
+        <v>-155.93940000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="6">
+        <v>0.13092319999999999</v>
+      </c>
+      <c r="C18" s="10">
+        <v>0.13805120000000001</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.15671750000000001</v>
+      </c>
+      <c r="E18" s="17">
+        <v>0.12656049999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="10">
+        <v>0.51398940000000004</v>
+      </c>
+      <c r="C19" s="10">
+        <v>0.46022449999999998</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0.30592720000000001</v>
+      </c>
+      <c r="E19" s="15">
+        <v>0.54549049999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="10">
+        <v>7.4254730000000005E-2</v>
+      </c>
+      <c r="C20" s="15">
+        <v>6.7018850000000005E-2</v>
+      </c>
+      <c r="D20" s="10">
+        <v>7.880537E-2</v>
+      </c>
+      <c r="E20" s="10">
+        <v>7.2663649999999996E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="6">
+        <v>-120.648</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="16">
+        <v>-92.771609999999995</v>
+      </c>
+      <c r="E24" s="7">
+        <v>-141.64070000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="6">
+        <v>0.13338249999999999</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0.1550839</v>
+      </c>
+      <c r="E25" s="17">
+        <v>0.11435299</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="10">
+        <v>0.48824580000000001</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="10">
+        <v>0.31007899999999999</v>
+      </c>
+      <c r="E26" s="15">
+        <v>0.6224172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="10">
+        <v>6.4005770000000003E-2</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="10">
+        <v>6.670218E-2</v>
+      </c>
+      <c r="E27" s="15">
+        <v>6.0620729999999998E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D30" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E30" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1">
-        <v>-149.87119999999999</v>
-      </c>
-      <c r="C8" s="1">
-        <v>-151.6591</v>
-      </c>
-      <c r="D8" s="11">
-        <v>-109.791</v>
-      </c>
-      <c r="E8" s="10">
-        <v>-155.93940000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="B31" s="12">
+        <v>-112.63</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="15">
+        <v>-64.453580000000002</v>
+      </c>
+      <c r="E31" s="10">
+        <v>-118.6551</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="2">
-        <v>0.13092319999999999</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.14586399999999999</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.15671750000000001</v>
-      </c>
-      <c r="E9" s="8">
-        <v>0.12656049999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="1">
-        <v>-120.648</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="1">
-        <v>-92.771609999999995</v>
-      </c>
-      <c r="E13" s="10">
-        <v>-141.64070000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.13338249999999999</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.1550839</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0.11435299</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>13</v>
+      <c r="B32" s="10">
+        <v>0.11575245000000001</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="10">
+        <v>0.16390740000000001</v>
+      </c>
+      <c r="E32" s="15">
+        <v>0.1082259</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="10">
+        <v>0.60740059999999996</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="10">
+        <v>0.21832260000000001</v>
+      </c>
+      <c r="E33" s="15">
+        <v>0.65610489999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="15">
+        <v>5.5335469999999998E-2</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="10">
+        <v>5.8149029999999997E-2</v>
+      </c>
+      <c r="E34" s="10">
+        <v>5.8273360000000003E-2</v>
       </c>
     </row>
   </sheetData>

--- a/results/fa-optimal.xlsx
+++ b/results/fa-optimal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hichul\Desktop\2020-2021\Fall of 2020\Independent Study\water-accessibility\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904ADDD5-EA81-4AA9-B389-AAB68DFF6D62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47FB6C2-BAC4-41C5-B0A2-77476B76F175}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="21">
   <si>
     <t>fm</t>
   </si>
@@ -42,9 +42,6 @@
     <t>minchi</t>
   </si>
   <si>
-    <t>old.min</t>
-  </si>
-  <si>
     <t>minrank</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
     <t>RMSEA</t>
   </si>
   <si>
-    <t>U-H</t>
-  </si>
-  <si>
     <t>3 FA</t>
   </si>
   <si>
@@ -78,29 +72,38 @@
     <t>6 FA</t>
   </si>
   <si>
-    <t>NNFI</t>
-  </si>
-  <si>
-    <t>Lowest .06 or less</t>
-  </si>
-  <si>
     <t xml:space="preserve">rms </t>
   </si>
   <si>
     <t>with a value of .08 or less being indicative of an acceptable model</t>
   </si>
   <si>
-    <t>.95 or above (Highest)</t>
-  </si>
-  <si>
-    <t>error</t>
+    <t>STATISTIC</t>
+  </si>
+  <si>
+    <t>PVAL</t>
+  </si>
+  <si>
+    <t>TLI</t>
+  </si>
+  <si>
+    <t>.90 or above (Highest)</t>
+  </si>
+  <si>
+    <t>Lowest .08 or less [0.10 for mediocre]</t>
+  </si>
+  <si>
+    <t>Least</t>
+  </si>
+  <si>
+    <t>Lowest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,19 +112,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Courier New"/>
-      <family val="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF202122"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,8 +153,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -203,43 +228,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,519 +593,623 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="43.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>5</v>
       </c>
       <c r="B3" s="6">
         <v>-182.81</v>
       </c>
-      <c r="C3" s="10">
-        <v>-179.45259999999999</v>
-      </c>
-      <c r="D3" s="15">
+      <c r="C3" s="15">
         <v>-176.32560000000001</v>
       </c>
-      <c r="E3" s="10">
+      <c r="D3" s="24">
         <v>-193.23580000000001</v>
       </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E3" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="6">
         <v>0.14299999999999999</v>
       </c>
-      <c r="C4" s="10">
-        <v>0.14497579999999999</v>
-      </c>
-      <c r="D4" s="10">
+      <c r="C4" s="21">
         <v>0.14640310000000001</v>
       </c>
-      <c r="E4" s="15">
+      <c r="D4" s="31">
         <v>0.1385094</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E4" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="21">
+        <v>0.43439899999999998</v>
+      </c>
+      <c r="C5" s="21">
+        <v>0.41090579999999999</v>
+      </c>
+      <c r="D5" s="31">
+        <v>0.47217409999999999</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="21">
+        <v>0.11723359999999999</v>
+      </c>
+      <c r="C6" s="21">
+        <v>0.1093722</v>
+      </c>
+      <c r="D6" s="31">
+        <v>0.104209</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="23">
+        <v>259.10759999999999</v>
+      </c>
+      <c r="C7" s="21">
+        <v>265.59179999999998</v>
+      </c>
+      <c r="D7" s="17">
+        <v>248.6815</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="B8" s="26">
+        <v>1.9480920000000001E-15</v>
+      </c>
+      <c r="C8" s="33">
+        <v>2.613412E-16</v>
+      </c>
+      <c r="D8" s="32">
+        <v>4.6149060000000003E-14</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="6">
+        <v>-163.81280000000001</v>
+      </c>
+      <c r="C12" s="15">
+        <v>-147.47110000000001</v>
+      </c>
+      <c r="D12" s="16">
+        <v>-176.9049</v>
+      </c>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="6">
+        <v>0.13922789999999999</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.14808189999999999</v>
+      </c>
+      <c r="D13" s="31">
+        <v>0.13170570000000001</v>
+      </c>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="21">
+        <v>0.45901999999999998</v>
+      </c>
+      <c r="C14" s="21">
+        <v>0.38871640000000002</v>
+      </c>
+      <c r="D14" s="31">
+        <v>0.51534380000000002</v>
+      </c>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="21">
+        <v>9.9236939999999996E-2</v>
+      </c>
+      <c r="C15" s="15">
+        <v>8.9264430000000006E-2</v>
+      </c>
+      <c r="D15" s="17">
+        <v>8.2689700000000005E-2</v>
+      </c>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="10">
-        <v>0.43439899999999998</v>
-      </c>
-      <c r="C5" s="10">
-        <v>0.42223559999999999</v>
-      </c>
-      <c r="D5" s="10">
-        <v>0.41090579999999999</v>
-      </c>
-      <c r="E5" s="15">
-        <v>0.47217409999999999</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="B16" s="22">
+        <v>213.74760000000001</v>
+      </c>
+      <c r="C16" s="11">
+        <v>230.08930000000001</v>
+      </c>
+      <c r="D16" s="30">
+        <v>200.65549999999999</v>
+      </c>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="27">
+        <v>1.840024E-12</v>
+      </c>
+      <c r="C17" s="36">
+        <v>1.18218E-14</v>
+      </c>
+      <c r="D17" s="34">
+        <v>8.8285820000000004E-11</v>
+      </c>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="6">
+        <v>-149.87119999999999</v>
+      </c>
+      <c r="C21" s="15">
+        <v>-109.791</v>
+      </c>
+      <c r="D21" s="16">
+        <v>-155.93940000000001</v>
+      </c>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="6">
+        <v>0.13092319999999999</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0.15671750000000001</v>
+      </c>
+      <c r="D22" s="31">
+        <v>0.12656049999999999</v>
+      </c>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="10">
-        <v>0.11723359999999999</v>
-      </c>
-      <c r="C6" s="15">
-        <v>0.10065830000000001</v>
-      </c>
-      <c r="D6" s="10">
-        <v>0.1093722</v>
-      </c>
-      <c r="E6" s="10">
-        <v>0.104209</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="6">
-        <v>-163.81280000000001</v>
-      </c>
-      <c r="C10" s="6">
-        <v>-151.6591</v>
-      </c>
-      <c r="D10" s="16">
-        <v>-147.47110000000001</v>
-      </c>
-      <c r="E10" s="7">
-        <v>-176.9049</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="6">
-        <v>0.13922789999999999</v>
-      </c>
-      <c r="C11" s="6">
-        <v>0.14586399999999999</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0.14808189999999999</v>
-      </c>
-      <c r="E11" s="17">
-        <v>0.13170570000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="10">
-        <v>0.45901999999999998</v>
-      </c>
-      <c r="C12" s="10">
-        <v>0.40673359999999997</v>
-      </c>
-      <c r="D12" s="10">
-        <v>0.38871640000000002</v>
-      </c>
-      <c r="E12" s="15">
-        <v>0.51534380000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="10">
-        <v>9.9236939999999996E-2</v>
-      </c>
-      <c r="C13" s="15">
-        <v>8.1355559999999993E-2</v>
-      </c>
-      <c r="D13" s="10">
-        <v>8.9264430000000006E-2</v>
-      </c>
-      <c r="E13" s="10">
-        <v>8.2689700000000005E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="6">
-        <v>-149.87119999999999</v>
-      </c>
-      <c r="C17" s="10">
-        <v>-139.51410000000001</v>
-      </c>
-      <c r="D17" s="16">
-        <v>-109.791</v>
-      </c>
-      <c r="E17" s="7">
-        <v>-155.93940000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="6">
-        <v>0.13092319999999999</v>
-      </c>
-      <c r="C18" s="10">
-        <v>0.13805120000000001</v>
-      </c>
-      <c r="D18" s="6">
-        <v>0.15671750000000001</v>
-      </c>
-      <c r="E18" s="17">
-        <v>0.12656049999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="10">
+      <c r="B23" s="21">
         <v>0.51398940000000004</v>
       </c>
-      <c r="C19" s="10">
-        <v>0.46022449999999998</v>
-      </c>
-      <c r="D19" s="10">
+      <c r="C23" s="21">
         <v>0.30592720000000001</v>
       </c>
-      <c r="E19" s="15">
+      <c r="D23" s="31">
         <v>0.54549049999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="10">
-        <v>7.4254730000000005E-2</v>
-      </c>
-      <c r="C20" s="15">
-        <v>6.7018850000000005E-2</v>
-      </c>
-      <c r="D20" s="10">
-        <v>7.880537E-2</v>
-      </c>
-      <c r="E20" s="10">
-        <v>7.2663649999999996E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="6">
-        <v>-120.648</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="16">
-        <v>-92.771609999999995</v>
-      </c>
-      <c r="E24" s="7">
-        <v>-141.64070000000001</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B24" s="21">
+        <v>7.4254730000000005E-2</v>
+      </c>
+      <c r="C24" s="15">
+        <v>7.880537E-2</v>
+      </c>
+      <c r="D24" s="17">
+        <v>7.2663649999999996E-2</v>
+      </c>
+      <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="6">
-        <v>0.13338249999999999</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="6">
-        <v>0.1550839</v>
-      </c>
-      <c r="E25" s="17">
-        <v>0.11435299</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B25" s="22">
+        <v>167.62280000000001</v>
+      </c>
+      <c r="C25" s="11">
+        <v>207.703</v>
+      </c>
+      <c r="D25" s="30">
+        <v>161.55459999999999</v>
+      </c>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="10">
-        <v>0.48824580000000001</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="10">
-        <v>0.31007899999999999</v>
-      </c>
-      <c r="E26" s="15">
-        <v>0.6224172</v>
-      </c>
+      <c r="A26" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="27">
+        <v>3.2133990000000002E-9</v>
+      </c>
+      <c r="C26" s="36">
+        <v>1.2583649999999999E-14</v>
+      </c>
+      <c r="D26" s="34">
+        <v>1.818802E-8</v>
+      </c>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="10">
-        <v>6.4005770000000003E-2</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="10">
-        <v>6.670218E-2</v>
-      </c>
-      <c r="E27" s="15">
-        <v>6.0620729999999998E-2</v>
-      </c>
+      <c r="A27" s="4"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="7"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="7"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="4" t="s">
+      <c r="A30" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="B30" s="6">
+        <v>-120.648</v>
+      </c>
+      <c r="C30" s="15">
+        <v>-92.771609999999995</v>
+      </c>
+      <c r="D30" s="16">
+        <v>-141.64070000000001</v>
+      </c>
+      <c r="E30" s="7"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="6">
+        <v>0.13338249999999999</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0.1550839</v>
+      </c>
+      <c r="D31" s="31">
+        <v>0.11435299</v>
+      </c>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="21">
+        <v>0.48824580000000001</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0.31007899999999999</v>
+      </c>
+      <c r="D32" s="31">
+        <v>0.6224172</v>
+      </c>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="21">
+        <v>6.4005770000000003E-2</v>
+      </c>
+      <c r="C33" s="6">
+        <v>6.670218E-2</v>
+      </c>
+      <c r="D33" s="17">
+        <v>6.0620729999999998E-2</v>
+      </c>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="22">
+        <v>141.0701</v>
+      </c>
+      <c r="C34" s="11">
+        <v>168.94640000000001</v>
+      </c>
+      <c r="D34" s="30">
+        <v>120.0774</v>
+      </c>
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="27">
+        <v>2.753781E-8</v>
+      </c>
+      <c r="C35" s="36">
+        <v>4.4795579999999996E-12</v>
+      </c>
+      <c r="D35" s="34">
+        <v>9.7142379999999999E-6</v>
+      </c>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="4"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="21">
         <v>-112.63</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="15">
+      <c r="C39" s="15">
         <v>-64.453580000000002</v>
       </c>
-      <c r="E31" s="10">
+      <c r="D39" s="24">
         <v>-118.6551</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="10">
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="21">
         <v>0.11575245000000001</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="10">
+      <c r="C40" s="21">
         <v>0.16390740000000001</v>
       </c>
-      <c r="E32" s="15">
+      <c r="D40" s="31">
         <v>0.1082259</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="14" t="s">
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="21">
+        <v>0.60740059999999996</v>
+      </c>
+      <c r="C41" s="21">
+        <v>0.21832260000000001</v>
+      </c>
+      <c r="D41" s="31">
+        <v>0.65610489999999999</v>
+      </c>
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="15">
+        <v>5.5335469999999998E-2</v>
+      </c>
+      <c r="C42" s="6">
+        <v>5.8149029999999997E-2</v>
+      </c>
+      <c r="D42" s="24">
+        <v>5.8273360000000003E-2</v>
+      </c>
+      <c r="E42" s="7"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="10">
-        <v>0.60740059999999996</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="10">
-        <v>0.21832260000000001</v>
-      </c>
-      <c r="E33" s="15">
-        <v>0.65610489999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" s="15">
-        <v>5.5335469999999998E-2</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="10">
-        <v>5.8149029999999997E-2</v>
-      </c>
-      <c r="E34" s="10">
-        <v>5.8273360000000003E-2</v>
+      <c r="B43" s="21">
+        <v>97.607460000000003</v>
+      </c>
+      <c r="C43" s="6">
+        <v>145.77889999999999</v>
+      </c>
+      <c r="D43" s="29">
+        <v>91.57741</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="28">
+        <v>4.5141529999999997E-5</v>
+      </c>
+      <c r="C44" s="37">
+        <v>1.5201319999999999E-11</v>
+      </c>
+      <c r="D44" s="35">
+        <v>2.172846E-4</v>
       </c>
     </row>
   </sheetData>

--- a/results/fa-optimal.xlsx
+++ b/results/fa-optimal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hichul\Desktop\2020-2021\Fall of 2020\Independent Study\water-accessibility\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47FB6C2-BAC4-41C5-B0A2-77476B76F175}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5E1221-1E1A-47F1-A4E5-B5F1769B2FDD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="26">
   <si>
     <t>fm</t>
   </si>
@@ -97,13 +97,28 @@
   </si>
   <si>
     <t>Lowest</t>
+  </si>
+  <si>
+    <t>objective</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EBIC </t>
+  </si>
+  <si>
+    <t>dof</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>Greatest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,9 +150,18 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color rgb="FF333333"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -160,7 +184,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -248,28 +272,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -279,27 +329,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -309,10 +344,71 @@
     <xf numFmtId="11" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -605,611 +701,897 @@
     <col min="2" max="2" width="15.6640625" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="43.44140625" customWidth="1"/>
+    <col min="5" max="5" width="54.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="14" t="s">
         <v>9</v>
       </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6">
-        <v>-182.81</v>
-      </c>
-      <c r="C3" s="15">
+      <c r="B3" s="22">
+        <v>-182.8098</v>
+      </c>
+      <c r="C3" s="4">
         <v>-176.32560000000001</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="8">
         <v>-193.23580000000001</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="22">
+        <v>0.43439899999999998</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.41090579999999999</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0.47217409999999999</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="22">
+        <v>0.11723359999999999</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.1093722</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0.104209</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="22">
+        <v>259.10759999999999</v>
+      </c>
+      <c r="C6" s="7">
+        <v>265.59179999999998</v>
+      </c>
+      <c r="D6" s="6">
+        <v>248.6815</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="42">
+        <v>1.9480920000000001E-15</v>
+      </c>
+      <c r="C7" s="11">
+        <v>2.613412E-16</v>
+      </c>
+      <c r="D7" s="10">
+        <v>4.6149060000000003E-14</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="22">
+        <v>4.0380399999999996</v>
+      </c>
+      <c r="C8" s="23">
+        <v>4.1390919999999998</v>
+      </c>
+      <c r="D8" s="24">
+        <v>3.875556</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="22">
+        <v>-169.0222</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-204.39420000000001</v>
+      </c>
+      <c r="D9" s="8">
+        <v>-226.29079999999999</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="22">
+        <v>103</v>
+      </c>
+      <c r="C10" s="7">
+        <v>103</v>
+      </c>
+      <c r="D10" s="8">
+        <v>103</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="22">
+        <v>272.89510000000001</v>
+      </c>
+      <c r="C11" s="25">
+        <v>237.5231</v>
+      </c>
+      <c r="D11" s="26">
+        <v>215.62649999999999</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="C4" s="21">
+      <c r="B12" s="22">
+        <v>0.14342759999999999</v>
+      </c>
+      <c r="C12" s="7">
         <v>0.14640310000000001</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D12" s="9">
         <v>0.1385094</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E12" s="28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="22">
+        <v>-163.81280000000001</v>
+      </c>
+      <c r="C16" s="4">
+        <v>-147.47110000000001</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-176.9049</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="21">
-        <v>0.43439899999999998</v>
-      </c>
-      <c r="C5" s="21">
-        <v>0.41090579999999999</v>
-      </c>
-      <c r="D5" s="31">
-        <v>0.47217409999999999</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="B17" s="22">
+        <v>0.45901999999999998</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.38871640000000002</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.51534380000000002</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="21">
-        <v>0.11723359999999999</v>
-      </c>
-      <c r="C6" s="21">
-        <v>0.1093722</v>
-      </c>
-      <c r="D6" s="31">
-        <v>0.104209</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="B18" s="22">
+        <v>9.9236939999999996E-2</v>
+      </c>
+      <c r="C18" s="4">
+        <v>8.9264430000000006E-2</v>
+      </c>
+      <c r="D18" s="6">
+        <v>8.2689700000000005E-2</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="23">
-        <v>259.10759999999999</v>
-      </c>
-      <c r="C7" s="21">
-        <v>265.59179999999998</v>
-      </c>
-      <c r="D7" s="17">
-        <v>248.6815</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="B19" s="22">
+        <v>213.74760000000001</v>
+      </c>
+      <c r="C19" s="31">
+        <v>230.08930000000001</v>
+      </c>
+      <c r="D19" s="35">
+        <v>200.65549999999999</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="26">
-        <v>1.9480920000000001E-15</v>
-      </c>
-      <c r="C8" s="33">
-        <v>2.613412E-16</v>
-      </c>
-      <c r="D8" s="32">
-        <v>4.6149060000000003E-14</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="B20" s="42">
+        <v>1.840024E-12</v>
+      </c>
+      <c r="C20" s="37">
+        <v>1.18218E-14</v>
+      </c>
+      <c r="D20" s="38">
+        <v>8.8285820000000004E-11</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="22">
+        <v>3.366104</v>
+      </c>
+      <c r="C21" s="23">
+        <v>3.623453</v>
+      </c>
+      <c r="D21" s="24">
+        <v>3.159929</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="22">
+        <v>-182.01910000000001</v>
+      </c>
+      <c r="C22" s="7">
+        <v>-219.3451</v>
+      </c>
+      <c r="D22" s="8">
+        <v>-241.79329999999999</v>
+      </c>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="22">
+        <v>88</v>
+      </c>
+      <c r="C23" s="7">
+        <v>88</v>
+      </c>
+      <c r="D23" s="8">
+        <v>88</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="22">
+        <v>195.54130000000001</v>
+      </c>
+      <c r="C24" s="25">
+        <v>158.21539999999999</v>
+      </c>
+      <c r="D24" s="26">
+        <v>135.7671</v>
+      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="22">
+        <v>0.13922789999999999</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.14808189999999999</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0.13170570000000001</v>
+      </c>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B28" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C28" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D28" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="6">
-        <v>-163.81280000000001</v>
-      </c>
-      <c r="C12" s="15">
-        <v>-147.47110000000001</v>
-      </c>
-      <c r="D12" s="16">
-        <v>-176.9049</v>
-      </c>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="B29" s="22">
+        <v>-149.87119999999999</v>
+      </c>
+      <c r="C29" s="4">
+        <v>-109.791</v>
+      </c>
+      <c r="D29" s="5">
+        <v>-155.93940000000001</v>
+      </c>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="22">
+        <v>0.51398940000000004</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0.30592720000000001</v>
+      </c>
+      <c r="D30" s="9">
+        <v>0.54549049999999999</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="22">
+        <v>7.4254730000000005E-2</v>
+      </c>
+      <c r="C31" s="4">
+        <v>7.880537E-2</v>
+      </c>
+      <c r="D31" s="6">
+        <v>7.2663649999999996E-2</v>
+      </c>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="22">
+        <v>167.62280000000001</v>
+      </c>
+      <c r="C32" s="31">
+        <v>207.703</v>
+      </c>
+      <c r="D32" s="35">
+        <v>161.55459999999999</v>
+      </c>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="42">
+        <v>3.2133990000000002E-9</v>
+      </c>
+      <c r="C33" s="37">
+        <v>1.2583649999999999E-14</v>
+      </c>
+      <c r="D33" s="38">
+        <v>1.818802E-8</v>
+      </c>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="22">
+        <v>2.6677369999999998</v>
+      </c>
+      <c r="C34" s="23">
+        <v>3.3056179999999999</v>
+      </c>
+      <c r="D34" s="24">
+        <v>2.571161</v>
+      </c>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="22">
+        <v>-208.0127</v>
+      </c>
+      <c r="C35" s="7">
+        <v>-194.1825</v>
+      </c>
+      <c r="D35" s="8">
+        <v>-212.6542</v>
+      </c>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="22">
+        <v>74</v>
+      </c>
+      <c r="C36" s="7">
+        <v>74</v>
+      </c>
+      <c r="D36" s="8">
+        <v>74</v>
+      </c>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="22">
+        <v>109.4813</v>
+      </c>
+      <c r="C37" s="25">
+        <v>123.3115</v>
+      </c>
+      <c r="D37" s="26">
+        <v>104.8398</v>
+      </c>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="6">
-        <v>0.13922789999999999</v>
-      </c>
-      <c r="C13" s="6">
-        <v>0.14808189999999999</v>
-      </c>
-      <c r="D13" s="31">
-        <v>0.13170570000000001</v>
-      </c>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
+      <c r="B38" s="22">
+        <v>0.13092319999999999</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.15671750000000001</v>
+      </c>
+      <c r="D38" s="9">
+        <v>0.12656049999999999</v>
+      </c>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="2">
+        <v>-120.648</v>
+      </c>
+      <c r="C42" s="4">
+        <v>-92.771609999999995</v>
+      </c>
+      <c r="D42" s="5">
+        <v>-141.64070000000001</v>
+      </c>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="21">
-        <v>0.45901999999999998</v>
-      </c>
-      <c r="C14" s="21">
-        <v>0.38871640000000002</v>
-      </c>
-      <c r="D14" s="31">
-        <v>0.51534380000000002</v>
-      </c>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="B43" s="7">
+        <v>0.48824580000000001</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.31007899999999999</v>
+      </c>
+      <c r="D43" s="9">
+        <v>0.6224172</v>
+      </c>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="21">
-        <v>9.9236939999999996E-2</v>
-      </c>
-      <c r="C15" s="15">
-        <v>8.9264430000000006E-2</v>
-      </c>
-      <c r="D15" s="17">
-        <v>8.2689700000000005E-2</v>
-      </c>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="B44" s="7">
+        <v>6.4005770000000003E-2</v>
+      </c>
+      <c r="C44" s="2">
+        <v>6.670218E-2</v>
+      </c>
+      <c r="D44" s="6">
+        <v>6.0620729999999998E-2</v>
+      </c>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="22">
-        <v>213.74760000000001</v>
-      </c>
-      <c r="C16" s="11">
-        <v>230.08930000000001</v>
-      </c>
-      <c r="D16" s="30">
-        <v>200.65549999999999</v>
-      </c>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+      <c r="B45" s="34">
+        <v>141.0701</v>
+      </c>
+      <c r="C45" s="31">
+        <v>168.94640000000001</v>
+      </c>
+      <c r="D45" s="35">
+        <v>120.0774</v>
+      </c>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="27">
-        <v>1.840024E-12</v>
-      </c>
-      <c r="C17" s="36">
-        <v>1.18218E-14</v>
-      </c>
-      <c r="D17" s="34">
-        <v>8.8285820000000004E-11</v>
-      </c>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="B46" s="36">
+        <v>2.753781E-8</v>
+      </c>
+      <c r="C46" s="37">
+        <v>4.4795579999999996E-12</v>
+      </c>
+      <c r="D46" s="38">
+        <v>9.7142379999999999E-6</v>
+      </c>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" s="23">
+        <v>2.2692239999999999</v>
+      </c>
+      <c r="C47" s="23">
+        <v>2.7176369999999999</v>
+      </c>
+      <c r="D47" s="24">
+        <v>1.9315389999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="7">
+        <v>-180.3732</v>
+      </c>
+      <c r="C48" s="7">
+        <v>-173.3751</v>
+      </c>
+      <c r="D48" s="8">
+        <v>-188.74969999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" s="7">
+        <v>61</v>
+      </c>
+      <c r="C49" s="7">
+        <v>61</v>
+      </c>
+      <c r="D49" s="8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="25">
+        <v>81.344849999999994</v>
+      </c>
+      <c r="C50" s="25">
+        <v>88.342929999999996</v>
+      </c>
+      <c r="D50" s="26">
+        <v>72.968289999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0.13338249999999999</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0.1550839</v>
+      </c>
+      <c r="D51" s="9">
+        <v>0.11435299</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="40"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B54" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C54" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D54" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="6">
-        <v>-149.87119999999999</v>
-      </c>
-      <c r="C21" s="15">
-        <v>-109.791</v>
-      </c>
-      <c r="D21" s="16">
-        <v>-155.93940000000001</v>
-      </c>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="B55" s="7">
+        <v>-112.63</v>
+      </c>
+      <c r="C55" s="4">
+        <v>-64.453580000000002</v>
+      </c>
+      <c r="D55" s="8">
+        <v>-118.6551</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" s="7">
+        <v>0.60740059999999996</v>
+      </c>
+      <c r="C56" s="7">
+        <v>0.21832260000000001</v>
+      </c>
+      <c r="D56" s="9">
+        <v>0.65610489999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="4">
+        <v>5.5335469999999998E-2</v>
+      </c>
+      <c r="C57" s="2">
+        <v>5.8149029999999997E-2</v>
+      </c>
+      <c r="D57" s="8">
+        <v>5.8273360000000003E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" s="7">
+        <v>97.607460000000003</v>
+      </c>
+      <c r="C58" s="2">
+        <v>145.77889999999999</v>
+      </c>
+      <c r="D58" s="35">
+        <v>91.57741</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" s="36">
+        <v>4.5141529999999997E-5</v>
+      </c>
+      <c r="C59" s="37">
+        <v>1.5201319999999999E-11</v>
+      </c>
+      <c r="D59" s="41">
+        <v>2.172846E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" s="23">
+        <v>1.587113</v>
+      </c>
+      <c r="C60" s="23">
+        <v>2.3703889999999999</v>
+      </c>
+      <c r="D60" s="24">
+        <v>1.4890639999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B61" s="7">
+        <v>-149.4332</v>
+      </c>
+      <c r="C61" s="7">
+        <v>-143.0932</v>
+      </c>
+      <c r="D61" s="8">
+        <v>-142.8058</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62" s="7">
+        <v>49</v>
+      </c>
+      <c r="C62" s="7">
+        <v>49</v>
+      </c>
+      <c r="D62" s="8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63" s="25">
+        <v>60.799349999999997</v>
+      </c>
+      <c r="C63" s="25">
+        <v>67.139279999999999</v>
+      </c>
+      <c r="D63" s="26">
+        <v>67.426689999999994</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="6">
-        <v>0.13092319999999999</v>
-      </c>
-      <c r="C22" s="6">
-        <v>0.15671750000000001</v>
-      </c>
-      <c r="D22" s="31">
-        <v>0.12656049999999999</v>
-      </c>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="21">
-        <v>0.51398940000000004</v>
-      </c>
-      <c r="C23" s="21">
-        <v>0.30592720000000001</v>
-      </c>
-      <c r="D23" s="31">
-        <v>0.54549049999999999</v>
-      </c>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="21">
-        <v>7.4254730000000005E-2</v>
-      </c>
-      <c r="C24" s="15">
-        <v>7.880537E-2</v>
-      </c>
-      <c r="D24" s="17">
-        <v>7.2663649999999996E-2</v>
-      </c>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="22">
-        <v>167.62280000000001</v>
-      </c>
-      <c r="C25" s="11">
-        <v>207.703</v>
-      </c>
-      <c r="D25" s="30">
-        <v>161.55459999999999</v>
-      </c>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="27">
-        <v>3.2133990000000002E-9</v>
-      </c>
-      <c r="C26" s="36">
-        <v>1.2583649999999999E-14</v>
-      </c>
-      <c r="D26" s="34">
-        <v>1.818802E-8</v>
-      </c>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="6">
-        <v>-120.648</v>
-      </c>
-      <c r="C30" s="15">
-        <v>-92.771609999999995</v>
-      </c>
-      <c r="D30" s="16">
-        <v>-141.64070000000001</v>
-      </c>
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="6">
-        <v>0.13338249999999999</v>
-      </c>
-      <c r="C31" s="6">
-        <v>0.1550839</v>
-      </c>
-      <c r="D31" s="31">
-        <v>0.11435299</v>
-      </c>
-      <c r="E31" s="7"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="21">
-        <v>0.48824580000000001</v>
-      </c>
-      <c r="C32" s="6">
-        <v>0.31007899999999999</v>
-      </c>
-      <c r="D32" s="31">
-        <v>0.6224172</v>
-      </c>
-      <c r="E32" s="7"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="21">
-        <v>6.4005770000000003E-2</v>
-      </c>
-      <c r="C33" s="6">
-        <v>6.670218E-2</v>
-      </c>
-      <c r="D33" s="17">
-        <v>6.0620729999999998E-2</v>
-      </c>
-      <c r="E33" s="7"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" s="22">
-        <v>141.0701</v>
-      </c>
-      <c r="C34" s="11">
-        <v>168.94640000000001</v>
-      </c>
-      <c r="D34" s="30">
-        <v>120.0774</v>
-      </c>
-      <c r="E34" s="7"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="27">
-        <v>2.753781E-8</v>
-      </c>
-      <c r="C35" s="36">
-        <v>4.4795579999999996E-12</v>
-      </c>
-      <c r="D35" s="34">
-        <v>9.7142379999999999E-6</v>
-      </c>
-      <c r="E35" s="7"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="7"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="7"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="21">
-        <v>-112.63</v>
-      </c>
-      <c r="C39" s="15">
-        <v>-64.453580000000002</v>
-      </c>
-      <c r="D39" s="24">
-        <v>-118.6551</v>
-      </c>
-      <c r="E39" s="7"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="21">
+      <c r="B64" s="7">
         <v>0.11575245000000001</v>
       </c>
-      <c r="C40" s="21">
+      <c r="C64" s="7">
         <v>0.16390740000000001</v>
       </c>
-      <c r="D40" s="31">
+      <c r="D64" s="9">
         <v>0.1082259</v>
-      </c>
-      <c r="E40" s="7"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B41" s="21">
-        <v>0.60740059999999996</v>
-      </c>
-      <c r="C41" s="21">
-        <v>0.21832260000000001</v>
-      </c>
-      <c r="D41" s="31">
-        <v>0.65610489999999999</v>
-      </c>
-      <c r="E41" s="7"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B42" s="15">
-        <v>5.5335469999999998E-2</v>
-      </c>
-      <c r="C42" s="6">
-        <v>5.8149029999999997E-2</v>
-      </c>
-      <c r="D42" s="24">
-        <v>5.8273360000000003E-2</v>
-      </c>
-      <c r="E42" s="7"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43" s="21">
-        <v>97.607460000000003</v>
-      </c>
-      <c r="C43" s="6">
-        <v>145.77889999999999</v>
-      </c>
-      <c r="D43" s="29">
-        <v>91.57741</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" s="28">
-        <v>4.5141529999999997E-5</v>
-      </c>
-      <c r="C44" s="37">
-        <v>1.5201319999999999E-11</v>
-      </c>
-      <c r="D44" s="35">
-        <v>2.172846E-4</v>
       </c>
     </row>
   </sheetData>

--- a/results/fa-optimal.xlsx
+++ b/results/fa-optimal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hichul\Desktop\2020-2021\Fall of 2020\Independent Study\water-accessibility\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5E1221-1E1A-47F1-A4E5-B5F1769B2FDD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58166E8D-1975-4591-B2AD-4AEAAEBD0520}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="27">
   <si>
     <t>fm</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>Greatest</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -313,9 +316,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -691,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -705,892 +707,921 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="17" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="21">
         <v>-182.8098</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>-176.32560000000001</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>-193.23580000000001</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="21">
         <v>0.43439899999999998</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>0.41090579999999999</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="5">
         <v>0.47217409999999999</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="27" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="21">
         <v>0.11723359999999999</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>0.1093722</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="5">
         <v>0.104209</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="28" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="21">
         <v>259.10759999999999</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>265.59179999999998</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>248.6815</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="28" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="41">
         <v>1.9480920000000001E-15</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>2.613412E-16</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>4.6149060000000003E-14</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="28" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="21">
         <v>4.0380399999999996</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="22">
         <v>4.1390919999999998</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="23">
         <v>3.875556</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="28" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="21">
         <v>-169.0222</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>-204.39420000000001</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>-226.29079999999999</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="28" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="21">
         <v>103</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>103</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>103</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="28" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="21">
         <v>272.89510000000001</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="24">
         <v>237.5231</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="25">
         <v>215.62649999999999</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="29" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="21">
         <v>0.14342759999999999</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>0.14640310000000001</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="5">
         <v>0.1385094</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="27" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="3"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="21">
         <v>-163.81280000000001</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>-147.47110000000001</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>-176.9049</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="21">
         <v>0.45901999999999998</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>0.38871640000000002</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>0.51534380000000002</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="21">
         <v>9.9236939999999996E-2</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="1">
         <v>8.9264430000000006E-2</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>8.2689700000000005E-2</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="21">
         <v>213.74760000000001</v>
       </c>
-      <c r="C19" s="31">
+      <c r="C19" s="30">
         <v>230.08930000000001</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="34">
         <v>200.65549999999999</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="42">
+      <c r="B20" s="41">
         <v>1.840024E-12</v>
       </c>
-      <c r="C20" s="37">
+      <c r="C20" s="36">
         <v>1.18218E-14</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="37">
         <v>8.8285820000000004E-11</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="21">
         <v>3.366104</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="22">
         <v>3.623453</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21" s="23">
         <v>3.159929</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B22" s="21">
         <v>-182.01910000000001</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <v>-219.3451</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="7">
         <v>-241.79329999999999</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B23" s="21">
         <v>88</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <v>88</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="7">
         <v>88</v>
       </c>
-      <c r="E23" s="3"/>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="22">
+      <c r="B24" s="21">
         <v>195.54130000000001</v>
       </c>
-      <c r="C24" s="25">
+      <c r="C24" s="24">
         <v>158.21539999999999</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24" s="25">
         <v>135.7671</v>
       </c>
-      <c r="E24" s="3"/>
+      <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="22">
+      <c r="B25" s="21">
         <v>0.13922789999999999</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <v>0.14808189999999999</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="8">
         <v>0.13170570000000001</v>
       </c>
-      <c r="E25" s="3"/>
+      <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="3"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="C28" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="33" t="s">
+      <c r="D28" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="3"/>
+      <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="22">
+      <c r="B29" s="21">
         <v>-149.87119999999999</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>-109.791</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <v>-155.93940000000001</v>
       </c>
-      <c r="E29" s="3"/>
+      <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="22">
+      <c r="B30" s="21">
         <v>0.51398940000000004</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="6">
         <v>0.30592720000000001</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="8">
         <v>0.54549049999999999</v>
       </c>
-      <c r="E30" s="3"/>
+      <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="22">
+      <c r="B31" s="21">
         <v>7.4254730000000005E-2</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <v>7.880537E-2</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="5">
         <v>7.2663649999999996E-2</v>
       </c>
-      <c r="E31" s="3"/>
+      <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="22">
+      <c r="B32" s="21">
         <v>167.62280000000001</v>
       </c>
-      <c r="C32" s="31">
+      <c r="C32" s="30">
         <v>207.703</v>
       </c>
-      <c r="D32" s="35">
+      <c r="D32" s="34">
         <v>161.55459999999999</v>
       </c>
-      <c r="E32" s="3"/>
+      <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="42">
+      <c r="B33" s="41">
         <v>3.2133990000000002E-9</v>
       </c>
-      <c r="C33" s="37">
+      <c r="C33" s="36">
         <v>1.2583649999999999E-14</v>
       </c>
-      <c r="D33" s="38">
+      <c r="D33" s="37">
         <v>1.818802E-8</v>
       </c>
-      <c r="E33" s="3"/>
+      <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="22">
+      <c r="B34" s="21">
         <v>2.6677369999999998</v>
       </c>
-      <c r="C34" s="23">
+      <c r="C34" s="22">
         <v>3.3056179999999999</v>
       </c>
-      <c r="D34" s="24">
+      <c r="D34" s="23">
         <v>2.571161</v>
       </c>
-      <c r="E34" s="3"/>
+      <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="22">
+      <c r="B35" s="21">
         <v>-208.0127</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="6">
         <v>-194.1825</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="7">
         <v>-212.6542</v>
       </c>
-      <c r="E35" s="3"/>
+      <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="22">
+      <c r="B36" s="21">
         <v>74</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="6">
         <v>74</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="7">
         <v>74</v>
       </c>
-      <c r="E36" s="3"/>
+      <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="22">
+      <c r="B37" s="21">
         <v>109.4813</v>
       </c>
-      <c r="C37" s="25">
+      <c r="C37" s="24">
         <v>123.3115</v>
       </c>
-      <c r="D37" s="26">
+      <c r="D37" s="25">
         <v>104.8398</v>
       </c>
-      <c r="E37" s="3"/>
+      <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="22">
+      <c r="B38" s="21">
         <v>0.13092319999999999</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="1">
         <v>0.15671750000000001</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="8">
         <v>0.12656049999999999</v>
       </c>
-      <c r="E38" s="3"/>
+      <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="E39" s="3"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="3"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="32" t="s">
+      <c r="B41" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="32" t="s">
+      <c r="C41" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="33" t="s">
+      <c r="D41" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="3"/>
+      <c r="E41" s="17" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="1">
         <v>-120.648</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="3">
         <v>-92.771609999999995</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="4">
         <v>-141.64070000000001</v>
       </c>
-      <c r="E42" s="3"/>
+      <c r="E42" s="26" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="6">
         <v>0.48824580000000001</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="1">
         <v>0.31007899999999999</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="5">
         <v>0.6224172</v>
       </c>
-      <c r="E43" s="3"/>
+      <c r="E43" s="27" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="6">
         <v>6.4005770000000003E-2</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="1">
         <v>6.670218E-2</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="5">
         <v>6.0620729999999998E-2</v>
       </c>
-      <c r="E44" s="3"/>
+      <c r="E44" s="28" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="34">
+      <c r="B45" s="33">
         <v>141.0701</v>
       </c>
-      <c r="C45" s="31">
+      <c r="C45" s="30">
         <v>168.94640000000001</v>
       </c>
-      <c r="D45" s="35">
+      <c r="D45" s="34">
         <v>120.0774</v>
       </c>
-      <c r="E45" s="3"/>
+      <c r="E45" s="28" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="36">
+      <c r="B46" s="35">
         <v>2.753781E-8</v>
       </c>
-      <c r="C46" s="37">
+      <c r="C46" s="36">
         <v>4.4795579999999996E-12</v>
       </c>
-      <c r="D46" s="38">
+      <c r="D46" s="37">
         <v>9.7142379999999999E-6</v>
       </c>
-      <c r="E46" s="3"/>
+      <c r="E46" s="28" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B47" s="23">
+      <c r="B47" s="22">
         <v>2.2692239999999999</v>
       </c>
-      <c r="C47" s="23">
+      <c r="C47" s="22">
         <v>2.7176369999999999</v>
       </c>
-      <c r="D47" s="24">
+      <c r="D47" s="23">
         <v>1.9315389999999999</v>
       </c>
+      <c r="E47" s="28" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="6">
         <v>-180.3732</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="6">
         <v>-173.3751</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="7">
         <v>-188.74969999999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="16" t="s">
+      <c r="E48" s="28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="6">
         <v>61</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="6">
         <v>61</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="7">
         <v>61</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="17" t="s">
+      <c r="E49" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B50" s="25">
+      <c r="B50" s="24">
         <v>81.344849999999994</v>
       </c>
-      <c r="C50" s="25">
+      <c r="C50" s="24">
         <v>88.342929999999996</v>
       </c>
-      <c r="D50" s="26">
+      <c r="D50" s="25">
         <v>72.968289999999996</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="16" t="s">
+      <c r="E50" s="29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="1">
         <v>0.13338249999999999</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="1">
         <v>0.1550839</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D51" s="5">
         <v>0.11435299</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="20" t="s">
+      <c r="E51" s="27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="40"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="15" t="s">
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B54" s="32" t="s">
+      <c r="B54" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C54" s="32" t="s">
+      <c r="C54" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D54" s="33" t="s">
+      <c r="D54" s="32" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="16" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="6">
         <v>-112.63</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="3">
         <v>-64.453580000000002</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D55" s="7">
         <v>-118.6551</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="21" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56" s="6">
         <v>0.60740059999999996</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="6">
         <v>0.21832260000000001</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D56" s="8">
         <v>0.65610489999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="16" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57" s="3">
         <v>5.5335469999999998E-2</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="1">
         <v>5.8149029999999997E-2</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D57" s="7">
         <v>5.8273360000000003E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="16" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B58" s="6">
         <v>97.607460000000003</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="1">
         <v>145.77889999999999</v>
       </c>
-      <c r="D58" s="35">
+      <c r="D58" s="34">
         <v>91.57741</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="17" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B59" s="36">
+      <c r="B59" s="35">
         <v>4.5141529999999997E-5</v>
       </c>
-      <c r="C59" s="37">
+      <c r="C59" s="36">
         <v>1.5201319999999999E-11</v>
       </c>
-      <c r="D59" s="41">
+      <c r="D59" s="40">
         <v>2.172846E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="15" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="23">
+      <c r="B60" s="22">
         <v>1.587113</v>
       </c>
-      <c r="C60" s="23">
+      <c r="C60" s="22">
         <v>2.3703889999999999</v>
       </c>
-      <c r="D60" s="24">
+      <c r="D60" s="23">
         <v>1.4890639999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="16" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B61" s="6">
         <v>-149.4332</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61" s="6">
         <v>-143.0932</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D61" s="7">
         <v>-142.8058</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="16" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62" s="6">
         <v>49</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="6">
         <v>49</v>
       </c>
-      <c r="D62" s="8">
+      <c r="D62" s="7">
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="17" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B63" s="25">
+      <c r="B63" s="24">
         <v>60.799349999999997</v>
       </c>
-      <c r="C63" s="25">
+      <c r="C63" s="24">
         <v>67.139279999999999</v>
       </c>
-      <c r="D63" s="26">
+      <c r="D63" s="25">
         <v>67.426689999999994</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="16" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B64" s="7">
+      <c r="B64" s="6">
         <v>0.11575245000000001</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C64" s="6">
         <v>0.16390740000000001</v>
       </c>
-      <c r="D64" s="9">
+      <c r="D64" s="8">
         <v>0.1082259</v>
       </c>
     </row>

--- a/results/fa-optimal.xlsx
+++ b/results/fa-optimal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hichul\Desktop\2020-2021\Fall of 2020\Independent Study\water-accessibility\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hichul\Desktop\Independent Study\water-accessibility\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58166E8D-1975-4591-B2AD-4AEAAEBD0520}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06316917-7D24-428E-8481-8C55068C7453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3576" yWindow="2076" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Optimal-Factor" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="28">
   <si>
     <t>fm</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>7 FA</t>
   </si>
 </sst>
 </file>
@@ -691,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1625,6 +1628,108 @@
         <v>0.1082259</v>
       </c>
     </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B66" s="38"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="38"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="4"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" s="6"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="5"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" s="6"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="5"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" s="33"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="34"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" s="35"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="37"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" s="22"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="23"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="7"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="7"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B76" s="24"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="25"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/results/fa-optimal.xlsx
+++ b/results/fa-optimal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hichul\Desktop\Independent Study\water-accessibility\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06316917-7D24-428E-8481-8C55068C7453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B0C8C4-00DC-4816-A503-E516BDB7B396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3576" yWindow="2076" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Optimal-Factor" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="29">
   <si>
     <t>fm</t>
   </si>
@@ -118,13 +118,16 @@
   </si>
   <si>
     <t>7 FA</t>
+  </si>
+  <si>
+    <t>p-value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +172,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -319,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -412,6 +421,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -696,7 +711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
       <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
@@ -1654,81 +1669,141 @@
       <c r="A68" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B68" s="1"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="4"/>
+      <c r="B68" s="42">
+        <v>-97.210880000000003</v>
+      </c>
+      <c r="C68" s="42">
+        <v>-42.93439</v>
+      </c>
+      <c r="D68" s="42">
+        <v>-97.625910000000005</v>
+      </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="6"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="5"/>
+      <c r="B69" s="42">
+        <v>0.70573390000000003</v>
+      </c>
+      <c r="C69" s="42">
+        <v>0.13175999999999999</v>
+      </c>
+      <c r="D69" s="42">
+        <v>0.7101229</v>
+      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B70" s="6"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="5"/>
+      <c r="B70" s="42">
+        <v>4.6298489999999998E-2</v>
+      </c>
+      <c r="C70" s="42">
+        <v>4.8526130000000001E-2</v>
+      </c>
+      <c r="D70" s="42">
+        <v>4.6545980000000001E-2</v>
+      </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B71" s="33"/>
-      <c r="C71" s="30"/>
-      <c r="D71" s="34"/>
+      <c r="B71" s="42">
+        <v>65.826580000000007</v>
+      </c>
+      <c r="C71" s="42">
+        <v>120.1031</v>
+      </c>
+      <c r="D71" s="42">
+        <v>65.411550000000005</v>
+      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B72" s="35"/>
-      <c r="C72" s="36"/>
-      <c r="D72" s="37"/>
+        <v>28</v>
+      </c>
+      <c r="B72" s="42">
+        <v>3.3781660000000002E-3</v>
+      </c>
+      <c r="C72" s="43">
+        <v>1.8951920000000001E-10</v>
+      </c>
+      <c r="D72" s="42">
+        <v>3.7328639999999998E-3</v>
+      </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B73" s="22"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="23"/>
+      <c r="B73" s="42">
+        <v>1.0820810000000001</v>
+      </c>
+      <c r="C73" s="42">
+        <v>1.974297</v>
+      </c>
+      <c r="D73" s="42">
+        <v>1.075258</v>
+      </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="7"/>
+      <c r="B74" s="42">
+        <v>-120.4751</v>
+      </c>
+      <c r="C74" s="42">
+        <v>-116.2808</v>
+      </c>
+      <c r="D74" s="42">
+        <v>-120.0189</v>
+      </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="7"/>
+      <c r="B75" s="42">
+        <v>38</v>
+      </c>
+      <c r="C75" s="42">
+        <v>38</v>
+      </c>
+      <c r="D75" s="42">
+        <v>38</v>
+      </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B76" s="24"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="25"/>
+      <c r="B76" s="42">
+        <v>42.562339999999999</v>
+      </c>
+      <c r="C76" s="42">
+        <v>46.756619999999998</v>
+      </c>
+      <c r="D76" s="42">
+        <v>43.018590000000003</v>
+      </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="5"/>
+      <c r="B77" s="42">
+        <v>9.9201570000000003E-2</v>
+      </c>
+      <c r="C77" s="42">
+        <v>0.171485</v>
+      </c>
+      <c r="D77" s="42">
+        <v>9.8444589999999998E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
